--- a/INTLINE/data/158/MOF/TRADE/COUN/Asia.xlsx
+++ b/INTLINE/data/158/MOF/TRADE/COUN/Asia.xlsx
@@ -4580,7 +4580,7 @@
         <v>4185751502</v>
       </c>
       <c r="TA2" t="n">
-        <v>0</v>
+        <v>4748342541</v>
       </c>
       <c r="TB2" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>4188178036</v>
       </c>
       <c r="SZ3" t="n">
-        <v>3440758229</v>
+        <v>3443948556</v>
       </c>
       <c r="TA3" t="n">
-        <v>0</v>
+        <v>4094161913</v>
       </c>
       <c r="TB3" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>557246162</v>
       </c>
       <c r="TA4" t="n">
-        <v>0</v>
+        <v>624733000</v>
       </c>
       <c r="TB4" t="n">
         <v>0</v>
@@ -9365,10 +9365,10 @@
         <v>325704048</v>
       </c>
       <c r="SZ5" t="n">
-        <v>300421139</v>
+        <v>300902229</v>
       </c>
       <c r="TA5" t="n">
-        <v>0</v>
+        <v>364847157</v>
       </c>
       <c r="TB5" t="n">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>1477531525</v>
       </c>
       <c r="TA8" t="n">
-        <v>0</v>
+        <v>1681576543</v>
       </c>
       <c r="TB8" t="n">
         <v>0</v>
@@ -15749,10 +15749,10 @@
         <v>2129237984</v>
       </c>
       <c r="SZ9" t="n">
-        <v>1533381245</v>
+        <v>1534495852</v>
       </c>
       <c r="TA9" t="n">
-        <v>0</v>
+        <v>1882340626</v>
       </c>
       <c r="TB9" t="n">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>523015180</v>
       </c>
       <c r="TA10" t="n">
-        <v>0</v>
+        <v>582012556</v>
       </c>
       <c r="TB10" t="n">
         <v>0</v>
@@ -18941,10 +18941,10 @@
         <v>361540343</v>
       </c>
       <c r="SZ11" t="n">
-        <v>306702460</v>
+        <v>306761028</v>
       </c>
       <c r="TA11" t="n">
-        <v>0</v>
+        <v>370384681</v>
       </c>
       <c r="TB11" t="n">
         <v>0</v>
@@ -20540,7 +20540,7 @@
         <v>5560923</v>
       </c>
       <c r="TA12" t="n">
-        <v>0</v>
+        <v>7502003</v>
       </c>
       <c r="TB12" t="n">
         <v>0</v>
@@ -22136,7 +22136,7 @@
         <v>278024</v>
       </c>
       <c r="TA13" t="n">
-        <v>0</v>
+        <v>1374443</v>
       </c>
       <c r="TB13" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>337115388</v>
       </c>
       <c r="TA14" t="n">
-        <v>0</v>
+        <v>349068581</v>
       </c>
       <c r="TB14" t="n">
         <v>0</v>
@@ -25325,10 +25325,10 @@
         <v>18696884</v>
       </c>
       <c r="SZ15" t="n">
-        <v>9576358</v>
+        <v>9577741</v>
       </c>
       <c r="TA15" t="n">
-        <v>0</v>
+        <v>9168723</v>
       </c>
       <c r="TB15" t="n">
         <v>0</v>
@@ -26924,7 +26924,7 @@
         <v>178141853</v>
       </c>
       <c r="TA16" t="n">
-        <v>0</v>
+        <v>203135863</v>
       </c>
       <c r="TB16" t="n">
         <v>0</v>
@@ -28517,10 +28517,10 @@
         <v>262844747</v>
       </c>
       <c r="SZ17" t="n">
-        <v>217086426</v>
+        <v>218071094</v>
       </c>
       <c r="TA17" t="n">
-        <v>0</v>
+        <v>245882477</v>
       </c>
       <c r="TB17" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>325739879</v>
       </c>
       <c r="TA18" t="n">
-        <v>0</v>
+        <v>341168432</v>
       </c>
       <c r="TB18" t="n">
         <v>0</v>
@@ -31709,10 +31709,10 @@
         <v>259621672</v>
       </c>
       <c r="SZ19" t="n">
-        <v>265186128</v>
+        <v>265136298</v>
       </c>
       <c r="TA19" t="n">
-        <v>0</v>
+        <v>287540470</v>
       </c>
       <c r="TB19" t="n">
         <v>0</v>
@@ -33308,7 +33308,7 @@
         <v>183564370</v>
       </c>
       <c r="TA20" t="n">
-        <v>0</v>
+        <v>247575201</v>
       </c>
       <c r="TB20" t="n">
         <v>0</v>
@@ -34901,10 +34901,10 @@
         <v>93725228</v>
       </c>
       <c r="SZ21" t="n">
-        <v>86953331</v>
+        <v>86946053</v>
       </c>
       <c r="TA21" t="n">
-        <v>0</v>
+        <v>114758468</v>
       </c>
       <c r="TB21" t="n">
         <v>0</v>
@@ -36500,7 +36500,7 @@
         <v>153244705</v>
       </c>
       <c r="TA22" t="n">
-        <v>0</v>
+        <v>193712412</v>
       </c>
       <c r="TB22" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>240179479</v>
       </c>
       <c r="SZ23" t="n">
-        <v>223643513</v>
+        <v>224000121</v>
       </c>
       <c r="TA23" t="n">
-        <v>0</v>
+        <v>250735721</v>
       </c>
       <c r="TB23" t="n">
         <v>0</v>
@@ -39692,7 +39692,7 @@
         <v>376010</v>
       </c>
       <c r="TA24" t="n">
-        <v>0</v>
+        <v>962337</v>
       </c>
       <c r="TB24" t="n">
         <v>0</v>
@@ -41288,7 +41288,7 @@
         <v>30388026</v>
       </c>
       <c r="TA25" t="n">
-        <v>0</v>
+        <v>28519976</v>
       </c>
       <c r="TB25" t="n">
         <v>0</v>
@@ -42884,7 +42884,7 @@
         <v>114538599</v>
       </c>
       <c r="TA26" t="n">
-        <v>0</v>
+        <v>135222982</v>
       </c>
       <c r="TB26" t="n">
         <v>0</v>
@@ -44477,10 +44477,10 @@
         <v>104440052</v>
       </c>
       <c r="SZ27" t="n">
-        <v>103063796</v>
+        <v>103365970</v>
       </c>
       <c r="TA27" t="n">
-        <v>0</v>
+        <v>120219444</v>
       </c>
       <c r="TB27" t="n">
         <v>0</v>
@@ -46076,7 +46076,7 @@
         <v>140129020</v>
       </c>
       <c r="TA28" t="n">
-        <v>0</v>
+        <v>165480495</v>
       </c>
       <c r="TB28" t="n">
         <v>0</v>
@@ -47669,10 +47669,10 @@
         <v>235468601</v>
       </c>
       <c r="SZ29" t="n">
-        <v>237683139</v>
+        <v>237288267</v>
       </c>
       <c r="TA29" t="n">
-        <v>0</v>
+        <v>271341881</v>
       </c>
       <c r="TB29" t="n">
         <v>0</v>
@@ -49268,7 +49268,7 @@
         <v>5525037</v>
       </c>
       <c r="TA30" t="n">
-        <v>0</v>
+        <v>5547284</v>
       </c>
       <c r="TB30" t="n">
         <v>0</v>
@@ -50861,10 +50861,10 @@
         <v>16573434</v>
       </c>
       <c r="SZ31" t="n">
-        <v>16875439</v>
+        <v>17100377</v>
       </c>
       <c r="TA31" t="n">
-        <v>0</v>
+        <v>23019985</v>
       </c>
       <c r="TB31" t="n">
         <v>0</v>
@@ -52460,7 +52460,7 @@
         <v>851160</v>
       </c>
       <c r="TA32" t="n">
-        <v>0</v>
+        <v>951113</v>
       </c>
       <c r="TB32" t="n">
         <v>0</v>
@@ -54056,7 +54056,7 @@
         <v>1870886</v>
       </c>
       <c r="TA33" t="n">
-        <v>0</v>
+        <v>1862797</v>
       </c>
       <c r="TB33" t="n">
         <v>0</v>
@@ -55652,7 +55652,7 @@
         <v>3689563</v>
       </c>
       <c r="TA34" t="n">
-        <v>0</v>
+        <v>6510675</v>
       </c>
       <c r="TB34" t="n">
         <v>0</v>
@@ -57245,10 +57245,10 @@
         <v>9324067</v>
       </c>
       <c r="SZ35" t="n">
-        <v>11891729</v>
+        <v>12001548</v>
       </c>
       <c r="TA35" t="n">
-        <v>0</v>
+        <v>15281104</v>
       </c>
       <c r="TB35" t="n">
         <v>0</v>
@@ -58844,7 +58844,7 @@
         <v>120377744</v>
       </c>
       <c r="TA36" t="n">
-        <v>0</v>
+        <v>142002902</v>
       </c>
       <c r="TB36" t="n">
         <v>0</v>
@@ -60437,10 +60437,10 @@
         <v>74179732</v>
       </c>
       <c r="SZ37" t="n">
-        <v>70645879</v>
+        <v>70645154</v>
       </c>
       <c r="TA37" t="n">
-        <v>0</v>
+        <v>78055762</v>
       </c>
       <c r="TB37" t="n">
         <v>0</v>
@@ -62036,7 +62036,7 @@
         <v>20845658</v>
       </c>
       <c r="TA38" t="n">
-        <v>0</v>
+        <v>20887788</v>
       </c>
       <c r="TB38" t="n">
         <v>0</v>
@@ -63629,10 +63629,10 @@
         <v>2482778</v>
       </c>
       <c r="SZ39" t="n">
-        <v>2226188</v>
+        <v>2226158</v>
       </c>
       <c r="TA39" t="n">
-        <v>0</v>
+        <v>5633053</v>
       </c>
       <c r="TB39" t="n">
         <v>0</v>
@@ -65228,7 +65228,7 @@
         <v>2860242</v>
       </c>
       <c r="TA40" t="n">
-        <v>0</v>
+        <v>3616624</v>
       </c>
       <c r="TB40" t="n">
         <v>0</v>
@@ -66821,10 +66821,10 @@
         <v>3089288</v>
       </c>
       <c r="SZ41" t="n">
-        <v>2367686</v>
+        <v>2367706</v>
       </c>
       <c r="TA41" t="n">
-        <v>0</v>
+        <v>2602791</v>
       </c>
       <c r="TB41" t="n">
         <v>0</v>
@@ -68420,7 +68420,7 @@
         <v>300184</v>
       </c>
       <c r="TA42" t="n">
-        <v>0</v>
+        <v>405808</v>
       </c>
       <c r="TB42" t="n">
         <v>0</v>
@@ -70016,7 +70016,7 @@
         <v>16667</v>
       </c>
       <c r="TA43" t="n">
-        <v>0</v>
+        <v>106688</v>
       </c>
       <c r="TB43" t="n">
         <v>0</v>
@@ -71612,7 +71612,7 @@
         <v>30572737</v>
       </c>
       <c r="TA44" t="n">
-        <v>0</v>
+        <v>30711573</v>
       </c>
       <c r="TB44" t="n">
         <v>0</v>
@@ -73205,10 +73205,10 @@
         <v>14382860</v>
       </c>
       <c r="SZ45" t="n">
-        <v>17077354</v>
+        <v>17086541</v>
       </c>
       <c r="TA45" t="n">
-        <v>0</v>
+        <v>19878902</v>
       </c>
       <c r="TB45" t="n">
         <v>0</v>
@@ -74804,7 +74804,7 @@
         <v>40796</v>
       </c>
       <c r="TA46" t="n">
-        <v>0</v>
+        <v>39429</v>
       </c>
       <c r="TB46" t="n">
         <v>0</v>
@@ -76400,7 +76400,7 @@
         <v>3070899</v>
       </c>
       <c r="TA47" t="n">
-        <v>0</v>
+        <v>281431</v>
       </c>
       <c r="TB47" t="n">
         <v>0</v>
@@ -77996,7 +77996,7 @@
         <v>4139391</v>
       </c>
       <c r="TA48" t="n">
-        <v>0</v>
+        <v>4932070</v>
       </c>
       <c r="TB48" t="n">
         <v>0</v>
@@ -79592,7 +79592,7 @@
         <v>259615</v>
       </c>
       <c r="TA49" t="n">
-        <v>0</v>
+        <v>234791</v>
       </c>
       <c r="TB49" t="n">
         <v>0</v>
@@ -81188,7 +81188,7 @@
         <v>36946</v>
       </c>
       <c r="TA50" t="n">
-        <v>0</v>
+        <v>108945</v>
       </c>
       <c r="TB50" t="n">
         <v>0</v>
@@ -82784,7 +82784,7 @@
         <v>983</v>
       </c>
       <c r="TA51" t="n">
-        <v>0</v>
+        <v>14196</v>
       </c>
       <c r="TB51" t="n">
         <v>0</v>
@@ -84380,7 +84380,7 @@
         <v>292566</v>
       </c>
       <c r="TA52" t="n">
-        <v>0</v>
+        <v>467208</v>
       </c>
       <c r="TB52" t="n">
         <v>0</v>
@@ -85976,7 +85976,7 @@
         <v>77942</v>
       </c>
       <c r="TA53" t="n">
-        <v>0</v>
+        <v>75929</v>
       </c>
       <c r="TB53" t="n">
         <v>0</v>
@@ -87572,7 +87572,7 @@
         <v>15864</v>
       </c>
       <c r="TA54" t="n">
-        <v>0</v>
+        <v>10717</v>
       </c>
       <c r="TB54" t="n">
         <v>0</v>
@@ -89168,7 +89168,7 @@
         <v>13377</v>
       </c>
       <c r="TA55" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="TB55" t="n">
         <v>0</v>
